--- a/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2050.xlsx
+++ b/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2050.xlsx
@@ -5302,55 +5302,55 @@
         <v>603.61</v>
       </c>
       <c r="C86" t="n">
-        <v>3016.249999999999</v>
+        <v>2737.25</v>
       </c>
       <c r="D86" t="n">
-        <v>238.9108910891089</v>
+        <v>216.8118811881188</v>
       </c>
       <c r="E86" t="n">
-        <v>238.9108910891089</v>
+        <v>216.8118811881188</v>
       </c>
       <c r="F86" t="n">
-        <v>209.0470297029703</v>
+        <v>189.7103960396039</v>
       </c>
       <c r="G86" t="n">
-        <v>209.0470297029703</v>
+        <v>189.7103960396039</v>
       </c>
       <c r="H86" t="n">
-        <v>209.0470297029703</v>
+        <v>189.7103960396039</v>
       </c>
       <c r="I86" t="n">
-        <v>179.1831683168316</v>
+        <v>162.6089108910891</v>
       </c>
       <c r="J86" t="n">
-        <v>179.1831683168316</v>
+        <v>162.6089108910891</v>
       </c>
       <c r="K86" t="n">
-        <v>179.1831683168316</v>
+        <v>162.6089108910891</v>
       </c>
       <c r="L86" t="n">
-        <v>179.1831683168316</v>
+        <v>162.6089108910891</v>
       </c>
       <c r="M86" t="n">
-        <v>238.9108910891089</v>
+        <v>216.8118811881188</v>
       </c>
       <c r="N86" t="n">
-        <v>179.1831683168316</v>
+        <v>162.6089108910891</v>
       </c>
       <c r="O86" t="n">
-        <v>149.319306930693</v>
+        <v>135.5074257425742</v>
       </c>
       <c r="P86" t="n">
-        <v>149.319306930693</v>
+        <v>135.5074257425742</v>
       </c>
       <c r="Q86" t="n">
-        <v>119.4554455445544</v>
+        <v>108.4059405940594</v>
       </c>
       <c r="R86" t="n">
-        <v>119.4554455445544</v>
+        <v>108.4059405940594</v>
       </c>
       <c r="S86" t="n">
-        <v>238.9108910891089</v>
+        <v>216.8118811881188</v>
       </c>
     </row>
     <row r="87">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>1519.11941997651</v>
+        <v>1519.077782730649</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>4597.684536781369</v>
+        <v>4597.557311579759</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>4065.080619794724</v>
+        <v>4064.968132585721</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>18737.82138337403</v>
+        <v>18737.30287822559</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>23929.2516099963</v>
+        <v>23928.58944976409</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>10627.08596679641</v>
+        <v>10626.79189852273</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>40226.10363512526</v>
+        <v>40225.01260651437</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>2961.57013715523</v>
+        <v>2961.488964060927</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>18619.08052048049</v>
+        <v>18618.57019375887</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>12011.90275009374</v>
+        <v>12011.57351821013</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>50245.76872182124</v>
+        <v>50244.40593581172</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>27382.87131174661</v>
+        <v>27382.12862246404</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>37144.64158638308</v>
+        <v>37143.634134429</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>11968.44774880596</v>
+        <v>11968.11335700033</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>1757.837916113493</v>
+        <v>1757.788803095071</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>8612.409286765333</v>
+        <v>8612.168660816782</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>2995.897356476816</v>
+        <v>2995.813652762889</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>2717.177922588683</v>
+        <v>2717.102006141468</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>15525.71662679316</v>
+        <v>15525.28284686401</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>8393.979726496083</v>
+        <v>8393.745203348546</v>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>11996.15013491413</v>
+        <v>11995.81496911916</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>8727.369884801501</v>
+        <v>8727.126046917472</v>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>25953.46318115719</v>
+        <v>25952.738055761</v>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>3661.487207104</v>
+        <v>3661.384907178046</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>9092.509011306962</v>
+        <v>9092.254971637838</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>16075.72475173412</v>
+        <v>16075.27560488238</v>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>8387.934132435425</v>
+        <v>8387.699778198437</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>980.5382932974334</v>
+        <v>980.5108976002412</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>6979.524780218771</v>
+        <v>6979.32977615954</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>6044.761866865153</v>
+        <v>6044.592979564334</v>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>45648.13777846425</v>
+        <v>45646.88661762016</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -6488,7 +6488,7 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>12197.88816265424</v>
+        <v>12197.55383313298</v>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>15414.44713467024</v>
+        <v>15414.02464311578</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>33105.97617311159</v>
+        <v>33105.06877791194</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>42729.42409880464</v>
+        <v>42728.25293641063</v>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>1713.522070051595</v>
+        <v>1713.474195193383</v>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>7267.059413647619</v>
+        <v>7266.856376029878</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>6124.749339106226</v>
+        <v>6124.578216999705</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>3886.051974124769</v>
+        <v>3885.94339998352</v>
       </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>2518.108428694639</v>
+        <v>2518.0380741389</v>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>4806.204442822922</v>
+        <v>4806.070160130997</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>759.1157089468634</v>
+        <v>759.0944996741217</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>5073.420826021626</v>
+        <v>5073.279077451857</v>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr"/>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>5028.553783664045</v>
+        <v>5028.413288654606</v>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>2441.199957499456</v>
+        <v>2441.131751723834</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>3953.013105227302</v>
+        <v>3952.902660229113</v>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>4334.1238853863</v>
+        <v>4334.002792363855</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -6888,7 +6888,7 @@
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
-        <v>3476.464050551452</v>
+        <v>3476.366920070083</v>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr"/>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>1799.339622821912</v>
+        <v>1799.289350268775</v>
       </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
@@ -6938,7 +6938,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>2851.986162184481</v>
+        <v>2851.906479269668</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>2434.825740137975</v>
+        <v>2434.757712454458</v>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr"/>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
-        <v>2481.811967027886</v>
+        <v>2481.742626575196</v>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
-        <v>2258.128915301299</v>
+        <v>2258.065824429267</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>4267.889139665267</v>
+        <v>4267.769897204957</v>
       </c>
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>4912.539920603484</v>
+        <v>4912.402666957166</v>
       </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>1702.747333909033</v>
+        <v>1702.699760090985</v>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>1624.241181276801</v>
+        <v>1624.195800877204</v>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr"/>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>2384.887083888853</v>
+        <v>2384.820451463751</v>
       </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr"/>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>4840.178361640155</v>
+        <v>4840.043129735744</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>8197.336599985167</v>
+        <v>8197.107570937744</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>4060.599816466586</v>
+        <v>4060.486365555233</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>3412.815802002029</v>
+        <v>3412.720449817495</v>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr"/>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>3045.879693778923</v>
+        <v>3045.794593586156</v>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr"/>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>3823.078307854115</v>
+        <v>3822.971493162246</v>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>3249.055927262184</v>
+        <v>3248.965150437911</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>5033.148918612186</v>
+        <v>5033.008295217222</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>4926.551826985087</v>
+        <v>4926.41418185386</v>
       </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr"/>
@@ -7388,7 +7388,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>5628.570426268676</v>
+        <v>5628.413167126348</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>6458.993423090444</v>
+        <v>6458.812962389219</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>5115.444409349227</v>
+        <v>5115.3014866638</v>
       </c>
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr"/>
@@ -7463,7 +7463,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>9569.482190852839</v>
+        <v>9569.214824817083</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>6701.402848520356</v>
+        <v>6701.215615033958</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>8381.81653229197</v>
+        <v>8381.582348977347</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>67357.39967967139</v>
+        <v>67355.60463285458</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -7563,7 +7563,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>58384.93202815942</v>
+        <v>58383.37609389109</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>61762.86663219542</v>
+        <v>61761.20533821367</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -7613,7 +7613,7 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>66039.80991550995</v>
+        <v>66038.0335805574</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>80288.6414961219</v>
+        <v>80286.48189692915</v>
       </c>
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr"/>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>100356.0891290308</v>
+        <v>100353.3897568029</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>2078.782706873661</v>
+        <v>2078.725729926675</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>18709.37357671002</v>
+        <v>18708.87497964951</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>12342.0807690268</v>
+        <v>12341.75185768369</v>
       </c>
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr"/>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>20529.11788549579</v>
+        <v>20528.5707930028</v>
       </c>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>20836.9900098745</v>
+        <v>20836.43471271685</v>
       </c>
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr"/>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>17298.68069852397</v>
+        <v>17298.21969584468</v>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
@@ -7838,7 +7838,7 @@
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>11065.65680252432</v>
+        <v>11065.3619073515</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>28004.28117032705</v>
+        <v>28003.53486782709</v>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>7865.404786557743</v>
+        <v>7865.195176776305</v>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>10790.96155197957</v>
+        <v>10790.67397732146</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>8321.516703966539</v>
+        <v>8321.294938991326</v>
       </c>
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>4056.432250319488</v>
+        <v>4056.324148079302</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>5366.79326472399</v>
+        <v>5366.650241905232</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>1991.910733023072</v>
+        <v>1991.857649426649</v>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
@@ -8038,7 +8038,7 @@
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>26307.77304091701</v>
+        <v>26307.07194965638</v>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr"/>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>13659.97680138195</v>
+        <v>13659.61276865516</v>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>17646.58717531331</v>
+        <v>17646.11690107044</v>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
@@ -8113,7 +8113,7 @@
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>24518.19061681086</v>
+        <v>24517.53721718098</v>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>31334.78100530283</v>
+        <v>31333.94594636103</v>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>6364.361661727197</v>
+        <v>6364.192054123634</v>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>37955.3033076238</v>
+        <v>37954.29181450341</v>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr"/>
@@ -8213,7 +8213,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>34529.69929051479</v>
+        <v>34528.77908832332</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -8238,7 +8238,7 @@
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="n">
-        <v>26626.75036348924</v>
+        <v>26626.04077161501</v>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="n">
-        <v>18669.16232521358</v>
+        <v>18668.66479976629</v>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>21270.66255676797</v>
+        <v>21270.09570241647</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>84023.96084985821</v>
+        <v>84021.7007782635</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
-        <v>84874.70848032735</v>
+        <v>84872.42552537254</v>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
-        <v>284097.1077013185</v>
+        <v>284089.6739072732</v>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr"/>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>26312.0136087303</v>
+        <v>26311.28551370564</v>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr"/>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>43224.80648685912</v>
+        <v>43223.62174662652</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr"/>
@@ -8438,7 +8438,7 @@
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
-        <v>49633.30010040764</v>
+        <v>49631.926668507</v>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>14143.14311369143</v>
+        <v>14142.75175055643</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
-        <v>11375.57482462305</v>
+        <v>11375.26004447906</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>26411.65059172447</v>
+        <v>26410.91973958694</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>34044.64671673207</v>
+        <v>34043.71359369582</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>47643.01454703541</v>
+        <v>47641.70870900573</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -8588,7 +8588,7 @@
       </c>
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="n">
-        <v>44934.27369954202</v>
+        <v>44933.06506007074</v>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
-        <v>17798.18732108203</v>
+        <v>17797.69534513604</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>9743.262466995395</v>
+        <v>9742.993144581671</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>11706.0623635381</v>
+        <v>11705.73878558034</v>
       </c>
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>7777.415344714719</v>
+        <v>7777.200362076177</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>4190.438497956236</v>
+        <v>4190.323643050355</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="n">
-        <v>64266.61225917191</v>
+        <v>64264.85078821704</v>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr"/>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="n">
-        <v>12672.57383279981</v>
+        <v>12672.22649271224</v>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>4728.894677139869</v>
+        <v>4728.765063794312</v>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>5531.93865869824</v>
+        <v>5531.785581207707</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>30680.0168624457</v>
+        <v>30679.17595988839</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>13004.25873259528</v>
+        <v>13003.90230142143</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>13931.09157966461</v>
+        <v>13930.70974511126</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="n">
-        <v>21779.87061427501</v>
+        <v>21779.28478058645</v>
       </c>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="n">
-        <v>44659.92885451641</v>
+        <v>44658.72759435674</v>
       </c>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr"/>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
-        <v>20502.78327146719</v>
+        <v>20502.22660101788</v>
       </c>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>32183.1999831057</v>
+        <v>32182.32617801505</v>
       </c>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
@@ -9013,7 +9013,7 @@
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>34206.12616785484</v>
+        <v>34205.19743835645</v>
       </c>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
-        <v>79968.45687714475</v>
+        <v>79966.26503741422</v>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
@@ -9063,7 +9063,7 @@
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>11069.5936652198</v>
+        <v>11069.29343123469</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>100615.8394755851</v>
+        <v>100613.1105321962</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="n">
-        <v>80316.88100613144</v>
+        <v>80314.7003249212</v>
       </c>
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr"/>
@@ -9138,7 +9138,7 @@
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="n">
-        <v>301789.6541506391</v>
+        <v>301781.222314741</v>
       </c>
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
-        <v>19400.38293422864</v>
+        <v>19399.84148499982</v>
       </c>
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr"/>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
-        <v>19259.32169614494</v>
+        <v>19258.78418382286</v>
       </c>
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr"/>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="n">
-        <v>29918.00602045905</v>
+        <v>29917.19457223018</v>
       </c>
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr"/>
@@ -9238,7 +9238,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>14673.32032658198</v>
+        <v>14672.91429260512</v>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
@@ -9263,7 +9263,7 @@
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
-        <v>14192.31394730366</v>
+        <v>14191.92122353394</v>
       </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
@@ -9288,7 +9288,7 @@
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
-        <v>123619.6855368397</v>
+        <v>123616.2354099206</v>
       </c>
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr"/>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="n">
-        <v>39205.06976781099</v>
+        <v>39203.98490153418</v>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="n">
-        <v>80306.87135664401</v>
+        <v>80304.64913852155</v>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
@@ -9363,7 +9363,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>8563.769242611212</v>
+        <v>8563.534519941775</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="n">
-        <v>51702.63577132557</v>
+        <v>51701.21866393497</v>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>53313.00362242322</v>
+        <v>53311.54237677642</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>36552.91145817087</v>
+        <v>36551.90958659889</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
@@ -9463,7 +9463,7 @@
       </c>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="n">
-        <v>107073.9710789666</v>
+        <v>107071.0363095202</v>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr"/>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>50554.003684432</v>
+        <v>50552.6180596727</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
-        <v>12020.26016348538</v>
+        <v>12019.93070253507</v>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr"/>
@@ -9538,7 +9538,7 @@
       </c>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
-        <v>35369.63733265526</v>
+        <v>35368.66789321143</v>
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr"/>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="n">
-        <v>99396.54320975002</v>
+        <v>99393.79275022019</v>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr"/>
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
-        <v>94698.09925476802</v>
+        <v>94695.50369316216</v>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>37867.39783181912</v>
+        <v>37866.35993174826</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>

--- a/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2050.xlsx
+++ b/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2050.xlsx
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>30679.17595988839</v>
+        <v>31140.09036586283</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>13003.90230142143</v>
+        <v>12333.69724124674</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>13930.70974511126</v>
+        <v>14140.00039931153</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
